--- a/회원 리스트.xlsx
+++ b/회원 리스트.xlsx
@@ -24,6 +24,9 @@
     <x:t>당뇨병</x:t>
   </x:si>
   <x:si>
+    <x:t>경북 의성군 봉양면 장대2길 9</x:t>
+  </x:si>
+  <x:si>
     <x:t>김률리</x:t>
   </x:si>
   <x:si>
@@ -48,16 +51,10 @@
     <x:t>회원 이름</x:t>
   </x:si>
   <x:si>
-    <x:t>경기도 용인시 수지구 문인로 59 풍림아파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기도 성남시 분당구 구미동 무지개마을 대림아파트</x:t>
-  </x:si>
-  <x:si>
     <x:t>병명</x:t>
   </x:si>
   <x:si>
-    <x:t>경기도 용인시 수지구 죽전동 1235 성현마을반도유보라</x:t>
+    <x:t>강원도 춘천시 봉의산길21번길 4</x:t>
   </x:si>
   <x:si>
     <x:t>알러지</x:t>
@@ -69,10 +66,13 @@
     <x:t>장지효</x:t>
   </x:si>
   <x:si>
+    <x:t>서울특별시 종로구 자하문로28가길 1</x:t>
+  </x:si>
+  <x:si>
     <x:t>심근경색</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 경기도 용인시 수지구 푸른솔로 20 꽃메마을 현대홈타운</x:t>
+    <x:t>전라북도 전주시 완산구 전라감영3길 2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -876,7 +876,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B12" activeCellId="0" sqref="B12:B12"/>
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -887,21 +887,21 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
@@ -915,38 +915,38 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>30</x:v>
@@ -957,16 +957,16 @@
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/회원 리스트.xlsx
+++ b/회원 리스트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>경기도 용인시 수지구 죽전로 121 꽃메마을 아이파크</x:t>
   </x:si>
@@ -27,12 +27,24 @@
     <x:t>경북 의성군 봉양면 장대2길 9</x:t>
   </x:si>
   <x:si>
+    <x:t>권영준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최숙희</x:t>
+  </x:si>
+  <x:si>
     <x:t>김률리</x:t>
   </x:si>
   <x:si>
     <x:t>이다민</x:t>
   </x:si>
   <x:si>
+    <x:t>김다미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송지효</x:t>
+  </x:si>
+  <x:si>
     <x:t>권영주</x:t>
   </x:si>
   <x:si>
@@ -42,15 +54,36 @@
     <x:t>주소</x:t>
   </x:si>
   <x:si>
+    <x:t>최숙자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알렉스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤지수</x:t>
+  </x:si>
+  <x:si>
     <x:t>나이</x:t>
   </x:si>
   <x:si>
+    <x:t>황용식</x:t>
+  </x:si>
+  <x:si>
     <x:t>골절</x:t>
   </x:si>
   <x:si>
+    <x:t>전소은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김크리스탈</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 이름</x:t>
   </x:si>
   <x:si>
+    <x:t>리우 펑</x:t>
+  </x:si>
+  <x:si>
     <x:t>병명</x:t>
   </x:si>
   <x:si>
@@ -70,6 +103,12 @@
   </x:si>
   <x:si>
     <x:t>심근경색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장하나</x:t>
   </x:si>
   <x:si>
     <x:t>전라북도 전주시 완산구 전라감영3길 2</x:t>
@@ -873,10 +912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D6"/>
+  <x:dimension ref="A1:D19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B8"/>
+      <x:selection activeCell="A20" activeCellId="0" sqref="A20:A20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -887,21 +926,21 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
@@ -915,49 +954,49 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>2</x:v>
@@ -966,7 +1005,72 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" t="s">
         <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/회원 리스트.xlsx
+++ b/회원 리스트.xlsx
@@ -16,63 +16,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <x:si>
+    <x:t>세종특별자치시 반곡동 400 수루배마을1단지</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff444444"/>
+      </x:rPr>
+      <x:t>전라남도 곡성군 곡성읍 장선리 177</x:t>
+    </x:r>
+  </x:si>
   <x:si>
     <x:t>경기도 용인시 수지구 죽전로 121 꽃메마을 아이파크</x:t>
   </x:si>
   <x:si>
-    <x:t>당뇨병</x:t>
+    <x:t>쥬브시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원도 강릉시 강릉대로 106번길 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황용식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전소은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장하나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장지효</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤지수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알렉스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이다민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최숙자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정소은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권영준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최숙희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김률리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송지효</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권영주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김다미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기도 가평군 가평읍 대곡리 212-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울특별시 종로구 자하문로28가길 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전라북도 전주시 완산구 전라감영3길 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상남도 의령군 의령읍 의령대로 1497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충청남도 천안시 동나구 성황동 44-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기도 성남시 분당구 구미동 무지개마을 대림아파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전라북도 순창군 순창읍 곡순로 2965-20</x:t>
   </x:si>
   <x:si>
     <x:t>경북 의성군 봉양면 장대2길 9</x:t>
   </x:si>
   <x:si>
-    <x:t>권영준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최숙희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김률리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이다민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김다미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송지효</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권영주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정소은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최숙자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알렉스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤지수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황용식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골절</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전소은</x:t>
+    <x:t>강원도 춘천시 봉의산길21번길 4</x:t>
   </x:si>
   <x:si>
     <x:t>김크리스탈</x:t>
@@ -84,41 +133,29 @@
     <x:t>리우 펑</x:t>
   </x:si>
   <x:si>
-    <x:t>병명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원도 춘천시 봉의산길21번길 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알러지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌출혈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장지효</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울특별시 종로구 자하문로28가길 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심근경색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장하나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전라북도 전주시 완산구 전라감영3길 2</x:t>
+    <x:t>전라남도 목포시 용당국민로 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울특별시 강북구 도봉로 13길 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기도 광주시 경안로 42번길 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원도 인제군 인제읍 광치령로 48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주특별자치도 제주시 관덕로 13길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기도 이천시 서희로 59번길 3</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
+  <x:fonts count="8">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -149,16 +186,47 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff444444"/>
+    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff444444"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff444444"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -173,6 +241,20 @@
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -236,20 +318,46 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -912,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D19"/>
+  <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A20" activeCellId="0" sqref="A20:A20"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -926,155 +1034,246 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D2" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="D2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D3" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="D3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="D4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D5" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="D5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D6" t="s">
+      <x:c r="D6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
         <x:v>25</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" t="s">
+      <x:c r="D7" s="1"/>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" t="s">
+      <x:c r="B8" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C8" s="1">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="1"/>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="1">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
-      <x:c r="A9" t="s">
+      <x:c r="D9" s="1"/>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="1">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C12" s="1">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="1"/>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="1">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D13" s="1"/>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C14" s="1">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D14" s="1"/>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C15" s="1">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D15" s="1"/>
+    </x:row>
+    <x:row r="16" spans="1:4" ht="14.199999999999999">
+      <x:c r="A16" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C16" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="1"/>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C17" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="1"/>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C18" s="1">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D18" s="1"/>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C19" s="1">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D19" s="1"/>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1">
-      <x:c r="A10" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1">
-      <x:c r="A11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1">
-      <x:c r="A15" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1">
-      <x:c r="A16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
-      <x:c r="A17" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1">
-      <x:c r="A19" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C20" s="1">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D20" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1090,7 +1289,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1106,7 +1305,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>